--- a/biology/Botanique/Tillandsia_favillosa/Tillandsia_favillosa.xlsx
+++ b/biology/Botanique/Tillandsia_favillosa/Tillandsia_favillosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia favillosa Mez est une plante de la famille des Bromeliaceae.
 L'épithète favillosa signifie « à aspect de cendre » et se rapporte à la pilosité grisâtre et pelucheuse couvrant la plante.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia favillosa Mez, in Repert. Spec. Nov. Regni Veg. 3: 43 (1906)
-Diagnose originale[1] :
+Diagnose originale :
 « Foliis caulem elongatum dense fere distiche invaginantibus, lepidibus ciñereis, piliformibus plumose villosis cinereis; inflorescentia usque ad 8-flora, simplicissima, disticha; bracteis dorso dense lepidotis, sepala aequantibus vel inferioribus paullo superantibus; sepalis subaequaliter liberis; petalis laminis maximis, suborbicularibus, late explanatis, coeruleis; staminibus profunde inclusis stylum superantibus. »
 Type :
-leg. Weberbauer, n° 4933, 1905-06-15 ; « Peruvia, prov. Urubamba. dept. Cuzco, prope Ollantaitambo. alt. 2800-2900 m »[1] ; « Peru: Ollantaitambo, (Dep. Cuzco, Prov. Urubamba) ... Abhängen 2800-2900 m » ; Holotypus B (B 10 0243497)
+leg. Weberbauer, n° 4933, 1905-06-15 ; « Peruvia, prov. Urubamba. dept. Cuzco, prope Ollantaitambo. alt. 2800-2900 m » ; « Peru: Ollantaitambo, (Dep. Cuzco, Prov. Urubamba) ... Abhängen 2800-2900 m » ; Holotypus B (B 10 0243497)
 leg. A. Weberbauer, n° 4933 ; « Peru » ; Isotypus B (B 10 0243496) Nb : ce spécimen correspond plutôt à un isotype qu’à une partie de l’holotype, car la numérotation des deux feuilles d’herbier est incertaine (de simples « I » et « II » au crayon à papier, ajoutés sur les feuilles en dehors de l’étiquette originale - voir ICBN Art. 8.3)</t>
         </is>
       </c>
@@ -549,10 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia paleacea Presl[2]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -577,10 +594,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia paleacea Presl</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,16 +630,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée, rameuse, à phyllotaxie alterne hélicoïdale.
-Habitat ; escarpements (typus).
-Altitude : 2800-2900 m[1]</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,14 +658,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Pérou
-Cuzco[1]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée, rameuse, à phyllotaxie alterne hélicoïdale.
+Habitat ; escarpements (typus).
+Altitude : 2800-2900 m</t>
         </is>
       </c>
     </row>
@@ -667,12 +692,48 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Pérou
+Cuzco</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_favillosa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_favillosa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia favillosa Mez est une plante mal connue qui ne semble pas avoir été introduite en culture sous cette identification, mais peut-être l'a-telle été sous celle de l'une des formes de Tillandsia paleacea Presl ; Mez signalait[1] déjà sa proche parenté avec Tillandsia scalarifolia Baker, elle-même souvent mise en synonymie[2] avec Tillandsia paleacea, tout comme Tillandsia favillosa Mez.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia favillosa Mez est une plante mal connue qui ne semble pas avoir été introduite en culture sous cette identification, mais peut-être l'a-telle été sous celle de l'une des formes de Tillandsia paleacea Presl ; Mez signalait déjà sa proche parenté avec Tillandsia scalarifolia Baker, elle-même souvent mise en synonymie avec Tillandsia paleacea, tout comme Tillandsia favillosa Mez.
 </t>
         </is>
       </c>
